--- a/docs/CareConnect-AllergyIntolerance-1.xlsx
+++ b/docs/CareConnect-AllergyIntolerance-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3661" uniqueCount="466">
   <si>
     <t>Path</t>
   </si>
@@ -852,6 +852,12 @@
   <si>
     <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
 </t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>AllergyIntolerance.code.coding.system</t>
@@ -5369,10 +5375,10 @@
         <v>261</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5438,7 +5444,7 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>42</v>
@@ -5449,7 +5455,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5475,16 +5481,16 @@
         <v>63</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5533,7 +5539,7 @@
         <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5548,18 +5554,18 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5585,13 +5591,13 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5641,7 +5647,7 @@
         <v>42</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5656,18 +5662,18 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5693,14 +5699,14 @@
         <v>69</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5749,7 +5755,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5764,18 +5770,18 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5801,14 +5807,14 @@
         <v>128</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5857,7 +5863,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5872,18 +5878,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5906,19 +5912,19 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -5967,7 +5973,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -5982,18 +5988,18 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6019,16 +6025,16 @@
         <v>128</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6077,7 +6083,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6092,22 +6098,22 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6126,13 +6132,13 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6183,7 +6189,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>50</v>
@@ -6198,18 +6204,18 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6232,13 +6238,13 @@
         <v>42</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6289,7 +6295,7 @@
         <v>42</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>40</v>
@@ -6304,10 +6310,10 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>42</v>
@@ -6315,7 +6321,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6338,13 +6344,13 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6395,7 +6401,7 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6410,22 +6416,22 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6444,13 +6450,13 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6501,7 +6507,7 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6516,10 +6522,10 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
@@ -6527,11 +6533,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6550,16 +6556,16 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6609,7 +6615,7 @@
         <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6624,18 +6630,18 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6658,16 +6664,16 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6717,7 +6723,7 @@
         <v>42</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6732,7 +6738,7 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>42</v>
@@ -6743,7 +6749,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6766,16 +6772,16 @@
         <v>42</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6825,7 +6831,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6840,7 +6846,7 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
@@ -6851,7 +6857,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6957,7 +6963,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7065,7 +7071,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7088,13 +7094,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7145,7 +7151,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7160,7 +7166,7 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>42</v>
@@ -7171,7 +7177,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7194,13 +7200,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7251,7 +7257,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7266,7 +7272,7 @@
         <v>42</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>42</v>
@@ -7277,7 +7283,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7303,10 +7309,10 @@
         <v>128</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7357,7 +7363,7 @@
         <v>42</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>50</v>
@@ -7372,7 +7378,7 @@
         <v>42</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>42</v>
@@ -7383,7 +7389,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7406,13 +7412,13 @@
         <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7463,7 +7469,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7475,10 +7481,10 @@
         <v>42</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>42</v>
@@ -7489,7 +7495,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7595,7 +7601,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7703,11 +7709,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7732,7 +7738,7 @@
         <v>117</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>119</v>
@@ -7785,7 +7791,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7811,7 +7817,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7837,13 +7843,13 @@
         <v>149</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7872,10 +7878,10 @@
         <v>237</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>42</v>
@@ -7893,7 +7899,7 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7908,7 +7914,7 @@
         <v>42</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>42</v>
@@ -7919,7 +7925,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8025,7 +8031,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8133,7 +8139,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8241,7 +8247,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>255</v>
@@ -8353,7 +8359,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8459,7 +8465,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8565,7 +8571,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>260</v>
@@ -8593,10 +8599,10 @@
         <v>261</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8662,7 +8668,7 @@
         <v>42</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>42</v>
@@ -8673,7 +8679,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8699,23 +8705,23 @@
         <v>63</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R66" t="s" s="2">
         <v>42</v>
@@ -8757,7 +8763,7 @@
         <v>42</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8772,18 +8778,18 @@
         <v>42</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8809,13 +8815,13 @@
         <v>128</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8865,7 +8871,7 @@
         <v>42</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8880,18 +8886,18 @@
         <v>42</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8917,14 +8923,14 @@
         <v>69</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>42</v>
@@ -8973,7 +8979,7 @@
         <v>42</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8988,18 +8994,18 @@
         <v>42</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9025,14 +9031,14 @@
         <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>42</v>
@@ -9081,7 +9087,7 @@
         <v>42</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9096,18 +9102,18 @@
         <v>42</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9130,19 +9136,19 @@
         <v>51</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>42</v>
@@ -9191,7 +9197,7 @@
         <v>42</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9206,18 +9212,18 @@
         <v>42</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9243,16 +9249,16 @@
         <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>42</v>
@@ -9301,7 +9307,7 @@
         <v>42</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9316,22 +9322,22 @@
         <v>42</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9353,13 +9359,13 @@
         <v>149</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9389,7 +9395,7 @@
       </c>
       <c r="X72" s="2"/>
       <c r="Y72" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>42</v>
@@ -9407,7 +9413,7 @@
         <v>42</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>50</v>
@@ -9428,12 +9434,12 @@
         <v>42</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9539,7 +9545,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9647,7 +9653,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9755,7 +9761,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>255</v>
@@ -9867,7 +9873,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9973,7 +9979,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10079,7 +10085,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>260</v>
@@ -10107,10 +10113,10 @@
         <v>261</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10176,7 +10182,7 @@
         <v>42</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>42</v>
@@ -10187,7 +10193,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10213,23 +10219,23 @@
         <v>63</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P80" s="2"/>
       <c r="Q80" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R80" t="s" s="2">
         <v>42</v>
@@ -10271,7 +10277,7 @@
         <v>42</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10286,18 +10292,18 @@
         <v>42</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10323,13 +10329,13 @@
         <v>128</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
@@ -10379,7 +10385,7 @@
         <v>42</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10394,18 +10400,18 @@
         <v>42</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10431,14 +10437,14 @@
         <v>69</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>42</v>
@@ -10487,7 +10493,7 @@
         <v>42</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10502,18 +10508,18 @@
         <v>42</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10539,14 +10545,14 @@
         <v>128</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>42</v>
@@ -10595,7 +10601,7 @@
         <v>42</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10610,18 +10616,18 @@
         <v>42</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10644,19 +10650,19 @@
         <v>51</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>42</v>
@@ -10705,7 +10711,7 @@
         <v>42</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10720,18 +10726,18 @@
         <v>42</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10757,16 +10763,16 @@
         <v>128</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>42</v>
@@ -10815,7 +10821,7 @@
         <v>42</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10830,22 +10836,22 @@
         <v>42</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -10867,13 +10873,13 @@
         <v>128</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
@@ -10923,7 +10929,7 @@
         <v>42</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10938,7 +10944,7 @@
         <v>42</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>42</v>
@@ -10949,7 +10955,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10972,13 +10978,13 @@
         <v>42</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11029,7 +11035,7 @@
         <v>42</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11044,18 +11050,18 @@
         <v>42</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11081,13 +11087,13 @@
         <v>69</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11117,7 +11123,7 @@
       </c>
       <c r="X88" s="2"/>
       <c r="Y88" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>42</v>
@@ -11135,7 +11141,7 @@
         <v>42</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11161,7 +11167,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11187,13 +11193,13 @@
         <v>149</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -11223,7 +11229,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>42</v>
@@ -11241,7 +11247,7 @@
         <v>42</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11256,7 +11262,7 @@
         <v>42</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>42</v>
@@ -11267,7 +11273,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11373,7 +11379,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -11481,7 +11487,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11589,7 +11595,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>255</v>
@@ -11701,7 +11707,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11807,7 +11813,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11913,7 +11919,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>260</v>
@@ -11941,10 +11947,10 @@
         <v>261</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -12010,7 +12016,7 @@
         <v>42</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>42</v>
@@ -12021,7 +12027,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12047,23 +12053,23 @@
         <v>63</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P97" s="2"/>
       <c r="Q97" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="R97" t="s" s="2">
         <v>42</v>
@@ -12105,7 +12111,7 @@
         <v>42</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12120,18 +12126,18 @@
         <v>42</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12157,13 +12163,13 @@
         <v>128</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12213,7 +12219,7 @@
         <v>42</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12228,18 +12234,18 @@
         <v>42</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12265,14 +12271,14 @@
         <v>69</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>42</v>
@@ -12321,7 +12327,7 @@
         <v>42</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12336,18 +12342,18 @@
         <v>42</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12373,14 +12379,14 @@
         <v>128</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>42</v>
@@ -12429,7 +12435,7 @@
         <v>42</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12444,18 +12450,18 @@
         <v>42</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12478,19 +12484,19 @@
         <v>51</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>42</v>
@@ -12539,7 +12545,7 @@
         <v>42</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12554,18 +12560,18 @@
         <v>42</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12591,16 +12597,16 @@
         <v>128</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>42</v>
@@ -12649,7 +12655,7 @@
         <v>42</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -12664,18 +12670,18 @@
         <v>42</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12698,16 +12704,16 @@
         <v>42</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -12757,7 +12763,7 @@
         <v>42</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -12772,7 +12778,7 @@
         <v>42</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>42</v>
@@ -12783,7 +12789,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12889,7 +12895,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12997,7 +13003,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13020,13 +13026,13 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
@@ -13077,7 +13083,7 @@
         <v>42</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13092,7 +13098,7 @@
         <v>42</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>42</v>
@@ -13103,7 +13109,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13126,13 +13132,13 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13183,7 +13189,7 @@
         <v>42</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13198,7 +13204,7 @@
         <v>42</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>42</v>
@@ -13209,7 +13215,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13235,10 +13241,10 @@
         <v>128</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13289,7 +13295,7 @@
         <v>42</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>50</v>
@@ -13304,7 +13310,7 @@
         <v>42</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>42</v>

--- a/docs/CareConnect-AllergyIntolerance-1.xlsx
+++ b/docs/CareConnect-AllergyIntolerance-1.xlsx
@@ -1637,17 +1637,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.07421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.0703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1658,19 +1658,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="125.65625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.7109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="125.65234375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>

--- a/docs/CareConnect-AllergyIntolerance-1.xlsx
+++ b/docs/CareConnect-AllergyIntolerance-1.xlsx
@@ -1637,17 +1637,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.0703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.07421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="4.6953125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.62109375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.7421875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.67578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1658,19 +1658,19 @@
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="125.65234375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="125.65625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.7109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="39.515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="255.0" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="22.03125" customWidth="true" bestFit="true"/>
